--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Agtr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Agtr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H2">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I2">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J2">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.743532666666667</v>
+        <v>0.01476566666666667</v>
       </c>
       <c r="N2">
-        <v>11.230598</v>
+        <v>0.044297</v>
       </c>
       <c r="O2">
-        <v>0.9802973346235675</v>
+        <v>0.003369932031170864</v>
       </c>
       <c r="P2">
-        <v>0.9802973346235675</v>
+        <v>0.003537680284170835</v>
       </c>
       <c r="Q2">
-        <v>567.9915056691746</v>
+        <v>2.137822020528333</v>
       </c>
       <c r="R2">
-        <v>5111.923551022571</v>
+        <v>19.240398184755</v>
       </c>
       <c r="S2">
-        <v>0.2647527693132745</v>
+        <v>0.0008189090982189532</v>
       </c>
       <c r="T2">
-        <v>0.2728526759919964</v>
+        <v>0.0008880026169487492</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H3">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I3">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J3">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.07523999999999999</v>
+        <v>3.743532666666667</v>
       </c>
       <c r="N3">
-        <v>0.22572</v>
+        <v>11.230598</v>
       </c>
       <c r="O3">
-        <v>0.01970266537643246</v>
+        <v>0.8543773151546027</v>
       </c>
       <c r="P3">
-        <v>0.01970266537643246</v>
+        <v>0.8969064524470826</v>
       </c>
       <c r="Q3">
-        <v>11.4158696322</v>
+        <v>542.0010318554633</v>
       </c>
       <c r="R3">
-        <v>102.7428266898</v>
+        <v>4878.00928669917</v>
       </c>
       <c r="S3">
-        <v>0.005321176582884751</v>
+        <v>0.2076176463561771</v>
       </c>
       <c r="T3">
-        <v>0.005483973874313141</v>
+        <v>0.2251348943246583</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>82.24887100000001</v>
+        <v>144.783305</v>
       </c>
       <c r="H4">
-        <v>246.746613</v>
+        <v>434.349915</v>
       </c>
       <c r="I4">
-        <v>0.146403824289839</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J4">
-        <v>0.150882936320401</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.743532666666667</v>
+        <v>0.6232934999999999</v>
       </c>
       <c r="N4">
-        <v>11.230598</v>
+        <v>1.246587</v>
       </c>
       <c r="O4">
-        <v>0.9802973346235675</v>
+        <v>0.1422527528142264</v>
       </c>
       <c r="P4">
-        <v>0.9802973346235675</v>
+        <v>0.09955586726874661</v>
       </c>
       <c r="Q4">
-        <v>307.9013353849527</v>
+        <v>90.24249291501748</v>
       </c>
       <c r="R4">
-        <v>2771.112018464574</v>
+        <v>541.4549574901049</v>
       </c>
       <c r="S4">
-        <v>0.1435192787300263</v>
+        <v>0.03456807806470426</v>
       </c>
       <c r="T4">
-        <v>0.1479101403150666</v>
+        <v>0.02498978527336592</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H5">
         <v>246.746613</v>
       </c>
       <c r="I5">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J5">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,33 +744,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.07523999999999999</v>
+        <v>0.01476566666666667</v>
       </c>
       <c r="N5">
-        <v>0.22572</v>
+        <v>0.044297</v>
       </c>
       <c r="O5">
-        <v>0.01970266537643246</v>
+        <v>0.003369932031170864</v>
       </c>
       <c r="P5">
-        <v>0.01970266537643246</v>
+        <v>0.003537680284170835</v>
       </c>
       <c r="Q5">
-        <v>6.18840505404</v>
+        <v>1.214459412895667</v>
       </c>
       <c r="R5">
-        <v>55.69564548636</v>
+        <v>10.930134716061</v>
       </c>
       <c r="S5">
-        <v>0.002884545559812712</v>
+        <v>0.0004652079794706786</v>
       </c>
       <c r="T5">
-        <v>0.002972796005334428</v>
+        <v>0.0005044588026850201</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>123.444321</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H6">
-        <v>370.332963</v>
+        <v>246.746613</v>
       </c>
       <c r="I6">
-        <v>0.2197321429647646</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J6">
-        <v>0.2264546783208506</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,27 +812,27 @@
         <v>11.230598</v>
       </c>
       <c r="O6">
-        <v>0.9802973346235675</v>
+        <v>0.8543773151546027</v>
       </c>
       <c r="P6">
-        <v>0.9802973346235675</v>
+        <v>0.8969064524470826</v>
       </c>
       <c r="Q6">
-        <v>462.117848177986</v>
+        <v>307.9013353849526</v>
       </c>
       <c r="R6">
-        <v>4159.060633601875</v>
+        <v>2771.112018464574</v>
       </c>
       <c r="S6">
-        <v>0.2154028340794834</v>
+        <v>0.1179439646889732</v>
       </c>
       <c r="T6">
-        <v>0.2219929175709672</v>
+        <v>0.127895207813549</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,51 +850,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>123.444321</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H7">
-        <v>370.332963</v>
+        <v>246.746613</v>
       </c>
       <c r="I7">
-        <v>0.2197321429647646</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J7">
-        <v>0.2264546783208506</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.07523999999999999</v>
+        <v>0.6232934999999999</v>
       </c>
       <c r="N7">
-        <v>0.22572</v>
+        <v>1.246587</v>
       </c>
       <c r="O7">
-        <v>0.01970266537643246</v>
+        <v>0.1422527528142264</v>
       </c>
       <c r="P7">
-        <v>0.01970266537643246</v>
+        <v>0.09955586726874661</v>
       </c>
       <c r="Q7">
-        <v>9.287950712039999</v>
+        <v>51.26518667663849</v>
       </c>
       <c r="R7">
-        <v>83.59155640835999</v>
+        <v>307.591120059831</v>
       </c>
       <c r="S7">
-        <v>0.004329308885281174</v>
+        <v>0.01963752238879884</v>
       </c>
       <c r="T7">
-        <v>0.004461760749883373</v>
+        <v>0.01419626126967314</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>50.0323125</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H8">
-        <v>100.064625</v>
+        <v>491.577271</v>
       </c>
       <c r="I8">
-        <v>0.08905802352064279</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J8">
-        <v>0.06118845668531954</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.743532666666667</v>
+        <v>0.01476566666666667</v>
       </c>
       <c r="N8">
-        <v>11.230598</v>
+        <v>0.044297</v>
       </c>
       <c r="O8">
-        <v>0.9802973346235675</v>
+        <v>0.003369932031170864</v>
       </c>
       <c r="P8">
-        <v>0.9802973346235675</v>
+        <v>0.003537680284170835</v>
       </c>
       <c r="Q8">
-        <v>187.297596232625</v>
+        <v>2.419488708165223</v>
       </c>
       <c r="R8">
-        <v>1123.78557739575</v>
+        <v>21.775398373487</v>
       </c>
       <c r="S8">
-        <v>0.08730334308412911</v>
+        <v>0.0009268036801608308</v>
       </c>
       <c r="T8">
-        <v>0.05998288099834835</v>
+        <v>0.001005000549109177</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>50.0323125</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H9">
-        <v>100.064625</v>
+        <v>491.577271</v>
       </c>
       <c r="I9">
-        <v>0.08905802352064279</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J9">
-        <v>0.06118845668531954</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.07523999999999999</v>
+        <v>3.743532666666667</v>
       </c>
       <c r="N9">
-        <v>0.22572</v>
+        <v>11.230598</v>
       </c>
       <c r="O9">
-        <v>0.01970266537643246</v>
+        <v>0.8543773151546027</v>
       </c>
       <c r="P9">
-        <v>0.01970266537643246</v>
+        <v>0.8969064524470826</v>
       </c>
       <c r="Q9">
-        <v>3.7644311925</v>
+        <v>613.4118573931177</v>
       </c>
       <c r="R9">
-        <v>22.586587155</v>
+        <v>5520.706716538059</v>
       </c>
       <c r="S9">
-        <v>0.001754680436513676</v>
+        <v>0.2349721100030897</v>
       </c>
       <c r="T9">
-        <v>0.001205575686971183</v>
+        <v>0.2547973261580791</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>154.3429766666667</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H10">
-        <v>463.02893</v>
+        <v>491.577271</v>
       </c>
       <c r="I10">
-        <v>0.2747320633285943</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J10">
-        <v>0.2831372788071194</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.743532666666667</v>
+        <v>0.6232934999999999</v>
       </c>
       <c r="N10">
-        <v>11.230598</v>
+        <v>1.246587</v>
       </c>
       <c r="O10">
-        <v>0.9802973346235675</v>
+        <v>0.1422527528142264</v>
       </c>
       <c r="P10">
-        <v>0.9802973346235675</v>
+        <v>0.09955586726874661</v>
       </c>
       <c r="Q10">
-        <v>577.7879750222378</v>
+        <v>102.1323059206795</v>
       </c>
       <c r="R10">
-        <v>5200.091775200141</v>
+        <v>612.7938355240769</v>
       </c>
       <c r="S10">
-        <v>0.2693191094166542</v>
+        <v>0.03912256199880294</v>
       </c>
       <c r="T10">
-        <v>0.2775587197471891</v>
+        <v>0.02828229043755473</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>154.3429766666667</v>
+        <v>57.0238095</v>
       </c>
       <c r="H11">
-        <v>463.02893</v>
+        <v>114.047619</v>
       </c>
       <c r="I11">
-        <v>0.2747320633285943</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J11">
-        <v>0.2831372788071194</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,338 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.07523999999999999</v>
+        <v>0.01476566666666667</v>
       </c>
       <c r="N11">
-        <v>0.22572</v>
+        <v>0.044297</v>
       </c>
       <c r="O11">
-        <v>0.01970266537643246</v>
+        <v>0.003369932031170864</v>
       </c>
       <c r="P11">
-        <v>0.01970266537643246</v>
+        <v>0.003537680284170835</v>
       </c>
       <c r="Q11">
-        <v>11.6127655644</v>
+        <v>0.8419945631405</v>
       </c>
       <c r="R11">
-        <v>104.5148900796</v>
+        <v>5.051967378843</v>
       </c>
       <c r="S11">
-        <v>0.005412953911940145</v>
+        <v>0.0003225324661200017</v>
       </c>
       <c r="T11">
-        <v>0.005578559059930335</v>
+        <v>0.0002331635868485755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>57.0238095</v>
+      </c>
+      <c r="H12">
+        <v>114.047619</v>
+      </c>
+      <c r="I12">
+        <v>0.09570889357312636</v>
+      </c>
+      <c r="J12">
+        <v>0.06590860906562239</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.743532666666667</v>
+      </c>
+      <c r="N12">
+        <v>11.230598</v>
+      </c>
+      <c r="O12">
+        <v>0.8543773151546027</v>
+      </c>
+      <c r="P12">
+        <v>0.8969064524470826</v>
+      </c>
+      <c r="Q12">
+        <v>213.470493641027</v>
+      </c>
+      <c r="R12">
+        <v>1280.822961846162</v>
+      </c>
+      <c r="S12">
+        <v>0.08177150752742531</v>
+      </c>
+      <c r="T12">
+        <v>0.05911385674276901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>57.0238095</v>
+      </c>
+      <c r="H13">
+        <v>114.047619</v>
+      </c>
+      <c r="I13">
+        <v>0.09570889357312636</v>
+      </c>
+      <c r="J13">
+        <v>0.06590860906562239</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6232934999999999</v>
+      </c>
+      <c r="N13">
+        <v>1.246587</v>
+      </c>
+      <c r="O13">
+        <v>0.1422527528142264</v>
+      </c>
+      <c r="P13">
+        <v>0.09955586726874661</v>
+      </c>
+      <c r="Q13">
+        <v>35.54256980658825</v>
+      </c>
+      <c r="R13">
+        <v>142.170279226353</v>
+      </c>
+      <c r="S13">
+        <v>0.01361485357958105</v>
+      </c>
+      <c r="T13">
+        <v>0.006561588736004813</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>147.8896333333333</v>
+      </c>
+      <c r="H14">
+        <v>443.6689</v>
+      </c>
+      <c r="I14">
+        <v>0.2482183021684772</v>
+      </c>
+      <c r="J14">
+        <v>0.2563981636887546</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.01476566666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.044297</v>
+      </c>
+      <c r="O14">
+        <v>0.003369932031170864</v>
+      </c>
+      <c r="P14">
+        <v>0.003537680284170835</v>
+      </c>
+      <c r="Q14">
+        <v>2.183689029255556</v>
+      </c>
+      <c r="R14">
+        <v>19.6532012633</v>
+      </c>
+      <c r="S14">
+        <v>0.0008364788072003996</v>
+      </c>
+      <c r="T14">
+        <v>0.0009070547285793137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>147.8896333333333</v>
+      </c>
+      <c r="H15">
+        <v>443.6689</v>
+      </c>
+      <c r="I15">
+        <v>0.2482183021684772</v>
+      </c>
+      <c r="J15">
+        <v>0.2563981636887546</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.743532666666667</v>
+      </c>
+      <c r="N15">
+        <v>11.230598</v>
+      </c>
+      <c r="O15">
+        <v>0.8543773151546027</v>
+      </c>
+      <c r="P15">
+        <v>0.8969064524470826</v>
+      </c>
+      <c r="Q15">
+        <v>553.6296734446889</v>
+      </c>
+      <c r="R15">
+        <v>4982.6670610022</v>
+      </c>
+      <c r="S15">
+        <v>0.2120720865789374</v>
+      </c>
+      <c r="T15">
+        <v>0.2299651674080272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>147.8896333333333</v>
+      </c>
+      <c r="H16">
+        <v>443.6689</v>
+      </c>
+      <c r="I16">
+        <v>0.2482183021684772</v>
+      </c>
+      <c r="J16">
+        <v>0.2563981636887546</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.6232934999999999</v>
+      </c>
+      <c r="N16">
+        <v>1.246587</v>
+      </c>
+      <c r="O16">
+        <v>0.1422527528142264</v>
+      </c>
+      <c r="P16">
+        <v>0.09955586726874661</v>
+      </c>
+      <c r="Q16">
+        <v>92.17864717405</v>
+      </c>
+      <c r="R16">
+        <v>553.0718830443</v>
+      </c>
+      <c r="S16">
+        <v>0.03530973678233935</v>
+      </c>
+      <c r="T16">
+        <v>0.02552594155214802</v>
       </c>
     </row>
   </sheetData>
